--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>CritDamage</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
   <si>
     <t>Exp</t>
@@ -828,10 +831,10 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1154,12 +1157,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1176,13 +1179,13 @@
     <col min="11" max="11" width="12.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.75" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="15" max="16" width="5.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.75" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="4"/>
@@ -1197,8 +1200,9 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="4"/>
@@ -1213,8 +1217,9 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1256,18 +1261,21 @@
       <c r="O3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="R3" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -1305,63 +1313,69 @@
       <c r="O4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="R4" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:17">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>18</v>
+      <c r="Q5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="3:17">
+    <row r="6" customHeight="1" spans="3:18">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1372,43 +1386,46 @@
         <v>100</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="10">
+        <v>22</v>
+      </c>
+      <c r="L6" s="9">
         <v>100</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>100</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="9">
         <v>100</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>100</v>
       </c>
-      <c r="P6" s="8">
-        <v>100000000</v>
+      <c r="P6" s="9">
+        <v>5</v>
       </c>
       <c r="Q6" s="8">
         <v>100000000</v>
       </c>
+      <c r="R6" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="3:17">
+    <row r="7" customHeight="1" spans="3:18">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1421,43 +1438,46 @@
         <v>200</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="10">
+        <v>25</v>
+      </c>
+      <c r="L7" s="9">
         <v>200</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>200</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>200</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>200</v>
       </c>
-      <c r="P7" s="8">
-        <v>100000000</v>
+      <c r="P7" s="9">
+        <v>10</v>
       </c>
       <c r="Q7" s="8">
         <v>100000000</v>
       </c>
+      <c r="R7" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="3:17">
+    <row r="8" customHeight="1" spans="3:18">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1470,43 +1490,46 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="10">
+        <v>28</v>
+      </c>
+      <c r="L8" s="9">
         <v>300</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>300</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="9">
         <v>300</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="9">
         <v>300</v>
       </c>
-      <c r="P8" s="8">
-        <v>100000000</v>
+      <c r="P8" s="9">
+        <v>15</v>
       </c>
       <c r="Q8" s="8">
         <v>100000000</v>
       </c>
+      <c r="R8" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="3:17">
+    <row r="9" customHeight="1" spans="3:18">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1519,43 +1542,46 @@
         <v>400</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="10">
+        <v>31</v>
+      </c>
+      <c r="L9" s="9">
         <v>400</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>400</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="9">
         <v>400</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>400</v>
       </c>
-      <c r="P9" s="8">
-        <v>100000000</v>
+      <c r="P9" s="9">
+        <v>20</v>
       </c>
       <c r="Q9" s="8">
         <v>100000000</v>
       </c>
+      <c r="R9" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="10" customHeight="1" spans="3:17">
+    <row r="10" customHeight="1" spans="3:18">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1568,43 +1594,46 @@
         <v>500</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="10">
+        <v>34</v>
+      </c>
+      <c r="L10" s="9">
         <v>500</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>500</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="9">
         <v>500</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="9">
         <v>500</v>
       </c>
-      <c r="P10" s="8">
-        <v>100000000</v>
+      <c r="P10" s="9">
+        <v>25</v>
       </c>
       <c r="Q10" s="8">
         <v>100000000</v>
       </c>
+      <c r="R10" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="11" customHeight="1" spans="3:17">
+    <row r="11" customHeight="1" spans="3:18">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1617,43 +1646,46 @@
         <v>600</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="10">
+        <v>37</v>
+      </c>
+      <c r="L11" s="9">
         <v>600</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>600</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="9">
         <v>600</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="9">
         <v>600</v>
       </c>
-      <c r="P11" s="8">
-        <v>100000000</v>
+      <c r="P11" s="9">
+        <v>30</v>
       </c>
       <c r="Q11" s="8">
         <v>100000000</v>
       </c>
+      <c r="R11" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="12" customHeight="1" spans="3:17">
+    <row r="12" customHeight="1" spans="3:18">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1666,43 +1698,46 @@
         <v>700</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="10">
+        <v>40</v>
+      </c>
+      <c r="L12" s="9">
         <v>700</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>700</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="9">
         <v>700</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>700</v>
       </c>
-      <c r="P12" s="8">
-        <v>100000000</v>
+      <c r="P12" s="9">
+        <v>35</v>
       </c>
       <c r="Q12" s="8">
         <v>100000000</v>
       </c>
+      <c r="R12" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="13" customHeight="1" spans="3:17">
+    <row r="13" customHeight="1" spans="3:18">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1715,43 +1750,46 @@
         <v>800</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="9">
+        <v>800</v>
+      </c>
+      <c r="M13" s="9">
+        <v>800</v>
+      </c>
+      <c r="N13" s="9">
+        <v>800</v>
+      </c>
+      <c r="O13" s="9">
+        <v>800</v>
+      </c>
+      <c r="P13" s="9">
         <v>40</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="10">
-        <v>800</v>
-      </c>
-      <c r="M13" s="10">
-        <v>800</v>
-      </c>
-      <c r="N13" s="10">
-        <v>800</v>
-      </c>
-      <c r="O13" s="10">
-        <v>800</v>
-      </c>
-      <c r="P13" s="8">
-        <v>100000000</v>
       </c>
       <c r="Q13" s="8">
         <v>100000000</v>
       </c>
+      <c r="R13" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="14" customHeight="1" spans="3:17">
+    <row r="14" customHeight="1" spans="3:18">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1764,43 +1802,46 @@
         <v>900</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="9">
+        <v>900</v>
+      </c>
+      <c r="M14" s="9">
+        <v>900</v>
+      </c>
+      <c r="N14" s="9">
+        <v>900</v>
+      </c>
+      <c r="O14" s="9">
+        <v>900</v>
+      </c>
+      <c r="P14" s="9">
         <v>45</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="10">
-        <v>900</v>
-      </c>
-      <c r="M14" s="10">
-        <v>900</v>
-      </c>
-      <c r="N14" s="10">
-        <v>900</v>
-      </c>
-      <c r="O14" s="10">
-        <v>900</v>
-      </c>
-      <c r="P14" s="8">
-        <v>100000000</v>
       </c>
       <c r="Q14" s="8">
         <v>100000000</v>
       </c>
+      <c r="R14" s="8">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="15" customHeight="1" spans="3:17">
+    <row r="15" customHeight="1" spans="3:18">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1813,45 +1854,48 @@
         <v>1000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="10">
+        <v>49</v>
+      </c>
+      <c r="L15" s="9">
         <v>1000</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <v>1000</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="9">
         <v>1000</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="9">
         <v>1000</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="9">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="8">
         <v>100000000</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="R15" s="8">
         <v>100000000</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 C3:C4 L3:L4 M3:M4 N3:N4 O3:O4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 C3:C4 L3:L4 M3:M4 N3:N4 O3:O4 P3:P4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>MulDamageResist</t>
   </si>
   <si>
     <t>Exp</t>
@@ -1157,12 +1160,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1179,13 +1182,13 @@
     <col min="11" max="11" width="12.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
-    <col min="15" max="16" width="5.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.75" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="15" max="17" width="5.875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.75" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="4"/>
@@ -1201,8 +1204,9 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="4"/>
@@ -1218,8 +1222,9 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1264,18 +1269,21 @@
       <c r="P3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="S3" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -1316,66 +1324,72 @@
       <c r="P4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="S4" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:19">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="R5" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="3:18">
+    <row r="6" customHeight="1" spans="3:19">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1386,22 +1400,22 @@
         <v>100</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="9">
         <v>100</v>
@@ -1418,14 +1432,17 @@
       <c r="P6" s="9">
         <v>5</v>
       </c>
-      <c r="Q6" s="8">
-        <v>100000000</v>
+      <c r="Q6" s="9">
+        <v>90</v>
       </c>
       <c r="R6" s="8">
-        <v>100000000</v>
+        <v>1000000000</v>
+      </c>
+      <c r="S6" s="8">
+        <v>1000000000</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:18">
+    <row r="7" customHeight="1" spans="3:19">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1438,22 +1455,22 @@
         <v>200</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="9">
         <v>200</v>
@@ -1470,14 +1487,17 @@
       <c r="P7" s="9">
         <v>10</v>
       </c>
-      <c r="Q7" s="8">
-        <v>100000000</v>
+      <c r="Q7" s="9">
+        <v>90</v>
       </c>
       <c r="R7" s="8">
-        <v>100000000</v>
+        <v>10000000000</v>
+      </c>
+      <c r="S7" s="8">
+        <v>10000000000</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:18">
+    <row r="8" customHeight="1" spans="3:19">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1490,22 +1510,22 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" s="9">
         <v>300</v>
@@ -1522,14 +1542,17 @@
       <c r="P8" s="9">
         <v>15</v>
       </c>
-      <c r="Q8" s="8">
-        <v>100000000</v>
+      <c r="Q8" s="9">
+        <v>90</v>
       </c>
       <c r="R8" s="8">
-        <v>100000000</v>
+        <v>100000000000</v>
+      </c>
+      <c r="S8" s="8">
+        <v>100000000000</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:18">
+    <row r="9" customHeight="1" spans="3:19">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1542,22 +1565,22 @@
         <v>400</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="9">
         <v>400</v>
@@ -1574,14 +1597,17 @@
       <c r="P9" s="9">
         <v>20</v>
       </c>
-      <c r="Q9" s="8">
-        <v>100000000</v>
+      <c r="Q9" s="9">
+        <v>90</v>
       </c>
       <c r="R9" s="8">
-        <v>100000000</v>
+        <v>1000000000000</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1000000000000</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:18">
+    <row r="10" customHeight="1" spans="3:19">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1594,22 +1620,22 @@
         <v>500</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" s="9">
         <v>500</v>
@@ -1626,14 +1652,17 @@
       <c r="P10" s="9">
         <v>25</v>
       </c>
-      <c r="Q10" s="8">
-        <v>100000000</v>
+      <c r="Q10" s="9">
+        <v>90</v>
       </c>
       <c r="R10" s="8">
-        <v>100000000</v>
+        <v>1000000000000</v>
+      </c>
+      <c r="S10" s="8">
+        <v>1000000000000</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:18">
+    <row r="11" customHeight="1" spans="3:19">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1646,22 +1675,22 @@
         <v>600</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="9">
         <v>600</v>
@@ -1678,14 +1707,17 @@
       <c r="P11" s="9">
         <v>30</v>
       </c>
-      <c r="Q11" s="8">
-        <v>100000000</v>
+      <c r="Q11" s="9">
+        <v>90</v>
       </c>
       <c r="R11" s="8">
-        <v>100000000</v>
+        <v>1000000000000</v>
+      </c>
+      <c r="S11" s="8">
+        <v>1000000000000</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:18">
+    <row r="12" customHeight="1" spans="3:19">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1698,22 +1730,22 @@
         <v>700</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L12" s="9">
         <v>700</v>
@@ -1730,14 +1762,17 @@
       <c r="P12" s="9">
         <v>35</v>
       </c>
-      <c r="Q12" s="8">
-        <v>100000000</v>
+      <c r="Q12" s="9">
+        <v>90</v>
       </c>
       <c r="R12" s="8">
-        <v>100000000</v>
+        <v>1000000000000</v>
+      </c>
+      <c r="S12" s="8">
+        <v>1000000000000</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:18">
+    <row r="13" customHeight="1" spans="3:19">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1750,22 +1785,22 @@
         <v>800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L13" s="9">
         <v>800</v>
@@ -1782,14 +1817,17 @@
       <c r="P13" s="9">
         <v>40</v>
       </c>
-      <c r="Q13" s="8">
-        <v>100000000</v>
+      <c r="Q13" s="9">
+        <v>90</v>
       </c>
       <c r="R13" s="8">
-        <v>100000000</v>
+        <v>1000000000000</v>
+      </c>
+      <c r="S13" s="8">
+        <v>1000000000000</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:18">
+    <row r="14" customHeight="1" spans="3:19">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1802,22 +1840,22 @@
         <v>900</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L14" s="9">
         <v>900</v>
@@ -1834,14 +1872,17 @@
       <c r="P14" s="9">
         <v>45</v>
       </c>
-      <c r="Q14" s="8">
-        <v>100000000</v>
+      <c r="Q14" s="9">
+        <v>90</v>
       </c>
       <c r="R14" s="8">
-        <v>100000000</v>
+        <v>1000000000000</v>
+      </c>
+      <c r="S14" s="8">
+        <v>1000000000000</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:18">
+    <row r="15" customHeight="1" spans="3:19">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1854,22 +1895,22 @@
         <v>1000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L15" s="9">
         <v>1000</v>
@@ -1886,16 +1927,19 @@
       <c r="P15" s="9">
         <v>50</v>
       </c>
-      <c r="Q15" s="8">
-        <v>100000000</v>
+      <c r="Q15" s="9">
+        <v>90</v>
       </c>
       <c r="R15" s="8">
-        <v>100000000</v>
+        <v>1000000000000</v>
+      </c>
+      <c r="S15" s="8">
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 C3:C4 L3:L4 M3:M4 N3:N4 O3:O4 P3:P4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 C3:C4 L3:L4 M3:M4 N3:N4 O3:O4 P3:P4 Q3:Q4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -95,94 +95,88 @@
     <t>double</t>
   </si>
   <si>
-    <t>100000000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>1000000000000</t>
-  </si>
-  <si>
-    <t>20000000000</t>
-  </si>
-  <si>
-    <t>200000000</t>
-  </si>
-  <si>
-    <t>200000000000000</t>
-  </si>
-  <si>
-    <t>4000000000000</t>
-  </si>
-  <si>
-    <t>40000000000</t>
-  </si>
-  <si>
-    <t>40000000000000000</t>
-  </si>
-  <si>
-    <t>800000000000000</t>
-  </si>
-  <si>
-    <t>8000000000000</t>
-  </si>
-  <si>
-    <t>8000000000000000000</t>
-  </si>
-  <si>
-    <t>160000000000000000</t>
-  </si>
-  <si>
-    <t>1600000000000000</t>
-  </si>
-  <si>
-    <t>1600000000000000000000</t>
-  </si>
-  <si>
-    <t>32000000000000000000</t>
-  </si>
-  <si>
-    <t>320000000000000000</t>
-  </si>
-  <si>
-    <t>320000000000000000000000</t>
-  </si>
-  <si>
-    <t>6400000000000000000000</t>
-  </si>
-  <si>
-    <t>64000000000000000000</t>
-  </si>
-  <si>
-    <t>64000000000000000000000000</t>
-  </si>
-  <si>
-    <t>1280000000000000000000000</t>
-  </si>
-  <si>
-    <t>12800000000000000000000</t>
-  </si>
-  <si>
-    <t>12800000000000000000000000000</t>
-  </si>
-  <si>
-    <t>256000000000000000000000000</t>
-  </si>
-  <si>
-    <t>2560000000000000000000000</t>
-  </si>
-  <si>
-    <t>2560000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>51200000000000000000000000000</t>
-  </si>
-  <si>
-    <t>512000000000000000000000000</t>
-  </si>
-  <si>
-    <t>512000000000000000000000000000000</t>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>10000000000000</t>
+  </si>
+  <si>
+    <t>1000000000</t>
+  </si>
+  <si>
+    <t>2000000000</t>
+  </si>
+  <si>
+    <t>2000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000</t>
+  </si>
+  <si>
+    <t>400000000000</t>
+  </si>
+  <si>
+    <t>400000000000000000</t>
+  </si>
+  <si>
+    <t>80000000000000</t>
+  </si>
+  <si>
+    <t>80000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000</t>
+  </si>
+  <si>
+    <t>16000000000000000</t>
+  </si>
+  <si>
+    <t>16000000000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000</t>
+  </si>
+  <si>
+    <t>3200000000000000000</t>
+  </si>
+  <si>
+    <t>3200000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000</t>
+  </si>
+  <si>
+    <t>640000000000000000000</t>
+  </si>
+  <si>
+    <t>640000000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000000</t>
+  </si>
+  <si>
+    <t>128000000000000000000000</t>
+  </si>
+  <si>
+    <t>128000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1000000000000000000000000</t>
+  </si>
+  <si>
+    <t>25600000000000000000000000</t>
+  </si>
+  <si>
+    <t>25600000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000000</t>
+  </si>
+  <si>
+    <t>5120000000000000000000000000</t>
+  </si>
+  <si>
+    <t>5120000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1160,12 +1154,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1174,15 +1168,16 @@
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
-    <col min="15" max="17" width="5.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8" style="2" customWidth="1"/>
+    <col min="16" max="17" width="5.875" style="2" customWidth="1"/>
     <col min="18" max="18" width="11.875" style="2" customWidth="1"/>
     <col min="19" max="19" width="10.75" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
@@ -1406,16 +1401,16 @@
         <v>21</v>
       </c>
       <c r="H6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="L6" s="9">
         <v>100</v>
@@ -1430,10 +1425,10 @@
         <v>100</v>
       </c>
       <c r="P6" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R6" s="8">
         <v>1000000000</v>
@@ -1455,22 +1450,22 @@
         <v>200</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="L7" s="9">
         <v>200</v>
@@ -1485,10 +1480,10 @@
         <v>200</v>
       </c>
       <c r="P7" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R7" s="8">
         <v>10000000000</v>
@@ -1510,22 +1505,22 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="L8" s="9">
         <v>300</v>
@@ -1540,10 +1535,10 @@
         <v>300</v>
       </c>
       <c r="P8" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R8" s="8">
         <v>100000000000</v>
@@ -1565,22 +1560,22 @@
         <v>400</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="L9" s="9">
         <v>400</v>
@@ -1595,10 +1590,10 @@
         <v>400</v>
       </c>
       <c r="P9" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R9" s="8">
         <v>1000000000000</v>
@@ -1620,22 +1615,22 @@
         <v>500</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="L10" s="9">
         <v>500</v>
@@ -1650,10 +1645,10 @@
         <v>500</v>
       </c>
       <c r="P10" s="9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R10" s="8">
         <v>1000000000000</v>
@@ -1675,22 +1670,22 @@
         <v>600</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="L11" s="9">
         <v>600</v>
@@ -1705,10 +1700,10 @@
         <v>600</v>
       </c>
       <c r="P11" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R11" s="8">
         <v>1000000000000</v>
@@ -1730,22 +1725,22 @@
         <v>700</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="L12" s="9">
         <v>700</v>
@@ -1760,10 +1755,10 @@
         <v>700</v>
       </c>
       <c r="P12" s="9">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R12" s="8">
         <v>1000000000000</v>
@@ -1785,22 +1780,22 @@
         <v>800</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>42</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>44</v>
       </c>
       <c r="L13" s="9">
         <v>800</v>
@@ -1815,10 +1810,10 @@
         <v>800</v>
       </c>
       <c r="P13" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R13" s="8">
         <v>1000000000000</v>
@@ -1840,22 +1835,22 @@
         <v>900</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="L14" s="9">
         <v>900</v>
@@ -1870,10 +1865,10 @@
         <v>900</v>
       </c>
       <c r="P14" s="9">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R14" s="8">
         <v>1000000000000</v>
@@ -1895,22 +1890,22 @@
         <v>1000</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="L15" s="9">
         <v>1000</v>
@@ -1925,10 +1920,10 @@
         <v>1000</v>
       </c>
       <c r="P15" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R15" s="8">
         <v>1000000000000</v>
@@ -1936,6 +1931,52 @@
       <c r="S15" s="8">
         <v>1000000000000</v>
       </c>
+    </row>
+    <row r="23" customHeight="1" spans="6:6">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" customHeight="1" spans="6:6">
+      <c r="F24" s="8"/>
+    </row>
+    <row r="27" customHeight="1" spans="8:9">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" customHeight="1" spans="8:9">
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" customHeight="1" spans="8:9">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" customHeight="1" spans="8:9">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" customHeight="1" spans="8:9">
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" customHeight="1" spans="8:9">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" customHeight="1" spans="8:9">
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" customHeight="1" spans="8:9">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" customHeight="1" spans="8:9">
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" customHeight="1" spans="8:9">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -98,31 +98,34 @@
     <t>10000000</t>
   </si>
   <si>
+    <t>100000000000000</t>
+  </si>
+  <si>
+    <t>1000000000</t>
+  </si>
+  <si>
+    <t>2000000000</t>
+  </si>
+  <si>
+    <t>20000000000000000</t>
+  </si>
+  <si>
+    <t>100000000000</t>
+  </si>
+  <si>
+    <t>400000000000</t>
+  </si>
+  <si>
+    <t>4000000000000000000</t>
+  </si>
+  <si>
     <t>10000000000000</t>
   </si>
   <si>
-    <t>1000000000</t>
-  </si>
-  <si>
-    <t>2000000000</t>
-  </si>
-  <si>
-    <t>2000000000000000</t>
-  </si>
-  <si>
-    <t>100000000000</t>
-  </si>
-  <si>
-    <t>400000000000</t>
-  </si>
-  <si>
-    <t>400000000000000000</t>
-  </si>
-  <si>
     <t>80000000000000</t>
   </si>
   <si>
-    <t>80000000000000000000</t>
+    <t>800000000000000000000</t>
   </si>
   <si>
     <t>10000000000000000</t>
@@ -131,7 +134,10 @@
     <t>16000000000000000</t>
   </si>
   <si>
-    <t>16000000000000000000000</t>
+    <t>160000000000000000000000</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
   <si>
     <t>1000000000000000000</t>
@@ -140,7 +146,7 @@
     <t>3200000000000000000</t>
   </si>
   <si>
-    <t>3200000000000000000000000</t>
+    <t>32000000000000000000000000</t>
   </si>
   <si>
     <t>100000000000000000000</t>
@@ -149,7 +155,7 @@
     <t>640000000000000000000</t>
   </si>
   <si>
-    <t>640000000000000000000000000</t>
+    <t>6400000000000000000000000000</t>
   </si>
   <si>
     <t>10000000000000000000000</t>
@@ -158,7 +164,7 @@
     <t>128000000000000000000000</t>
   </si>
   <si>
-    <t>128000000000000000000000000000</t>
+    <t>1280000000000000000000000000000</t>
   </si>
   <si>
     <t>1000000000000000000000000</t>
@@ -167,7 +173,7 @@
     <t>25600000000000000000000000</t>
   </si>
   <si>
-    <t>25600000000000000000000000000000</t>
+    <t>256000000000000000000000000000000</t>
   </si>
   <si>
     <t>100000000000000000000000000</t>
@@ -176,7 +182,7 @@
     <t>5120000000000000000000000000</t>
   </si>
   <si>
-    <t>5120000000000000000000000000000000</t>
+    <t>51200000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1165,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1172,14 +1178,14 @@
     <col min="7" max="7" width="19.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="28.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" customWidth="1"/>
     <col min="16" max="17" width="5.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.375" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1431,10 +1437,10 @@
         <v>99</v>
       </c>
       <c r="R6" s="8">
-        <v>1000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="S6" s="8">
-        <v>1000000000</v>
+        <v>10000000000</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:19">
@@ -1486,10 +1492,10 @@
         <v>99</v>
       </c>
       <c r="R7" s="8">
-        <v>10000000000</v>
+        <v>500000000000</v>
       </c>
       <c r="S7" s="8">
-        <v>10000000000</v>
+        <v>500000000000</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:19">
@@ -1541,10 +1547,10 @@
         <v>99</v>
       </c>
       <c r="R8" s="8">
-        <v>100000000000</v>
+        <v>1000000000000</v>
       </c>
       <c r="S8" s="8">
-        <v>100000000000</v>
+        <v>1000000000000</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:19">
@@ -1560,22 +1566,22 @@
         <v>400</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" s="9">
         <v>400</v>
@@ -1596,10 +1602,10 @@
         <v>99</v>
       </c>
       <c r="R9" s="8">
-        <v>1000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="S9" s="8">
-        <v>1000000000000</v>
+        <v>5000000000000</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:19">
@@ -1615,22 +1621,22 @@
         <v>500</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L10" s="9">
         <v>500</v>
@@ -1651,13 +1657,19 @@
         <v>99</v>
       </c>
       <c r="R10" s="8">
-        <v>1000000000000</v>
+        <v>10000000000000</v>
       </c>
       <c r="S10" s="8">
-        <v>1000000000000</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:19">
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1670,22 +1682,22 @@
         <v>600</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L11" s="9">
         <v>600</v>
@@ -1712,7 +1724,13 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:19">
+    <row r="12" customHeight="1" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1725,22 +1743,22 @@
         <v>700</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L12" s="9">
         <v>700</v>
@@ -1767,7 +1785,13 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:19">
+    <row r="13" customHeight="1" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1780,22 +1804,22 @@
         <v>800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L13" s="9">
         <v>800</v>
@@ -1822,7 +1846,13 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:19">
+    <row r="14" customHeight="1" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1835,22 +1865,22 @@
         <v>900</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L14" s="9">
         <v>900</v>
@@ -1877,7 +1907,13 @@
         <v>1000000000000</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:19">
+    <row r="15" customHeight="1" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1890,22 +1926,22 @@
         <v>1000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L15" s="9">
         <v>1000</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -137,16 +137,16 @@
     <t>160000000000000000000000</t>
   </si>
   <si>
+    <t>1000000000000000000</t>
+  </si>
+  <si>
+    <t>3200000000000000000</t>
+  </si>
+  <si>
+    <t>32000000000000000000000000</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>1000000000000000000</t>
-  </si>
-  <si>
-    <t>3200000000000000000</t>
-  </si>
-  <si>
-    <t>32000000000000000000000000</t>
   </si>
   <si>
     <t>100000000000000000000</t>
@@ -1162,10 +1162,10 @@
   <sheetPr/>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1663,13 +1663,7 @@
         <v>10000000000000</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:19">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
+    <row r="11" customHeight="1" spans="3:19">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1682,22 +1676,22 @@
         <v>600</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="L11" s="9">
         <v>600</v>
@@ -1712,24 +1706,24 @@
         <v>600</v>
       </c>
       <c r="P11" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="9">
         <v>99</v>
       </c>
       <c r="R11" s="8">
-        <v>1000000000000</v>
+        <v>100000000000000</v>
       </c>
       <c r="S11" s="8">
-        <v>1000000000000</v>
+        <v>100000000000000</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>7</v>
@@ -1787,10 +1781,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:19">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1848,10 +1842,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:19">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
@@ -1909,10 +1903,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -128,7 +128,7 @@
     <t>800000000000000000000</t>
   </si>
   <si>
-    <t>10000000000000000</t>
+    <t>1000000000000000</t>
   </si>
   <si>
     <t>16000000000000000</t>
@@ -137,7 +137,7 @@
     <t>160000000000000000000000</t>
   </si>
   <si>
-    <t>1000000000000000000</t>
+    <t>100000000000000000</t>
   </si>
   <si>
     <t>3200000000000000000</t>
@@ -149,7 +149,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>100000000000000000000</t>
+    <t>10000000000000000000</t>
   </si>
   <si>
     <t>640000000000000000000</t>
@@ -158,7 +158,7 @@
     <t>6400000000000000000000000000</t>
   </si>
   <si>
-    <t>10000000000000000000000</t>
+    <t>1000000000000000000000</t>
   </si>
   <si>
     <t>128000000000000000000000</t>
@@ -167,7 +167,7 @@
     <t>1280000000000000000000000000000</t>
   </si>
   <si>
-    <t>1000000000000000000000000</t>
+    <t>100000000000000000000000</t>
   </si>
   <si>
     <t>25600000000000000000000000</t>
@@ -176,7 +176,7 @@
     <t>256000000000000000000000000000000</t>
   </si>
   <si>
-    <t>100000000000000000000000000</t>
+    <t>10000000000000000000000000</t>
   </si>
   <si>
     <t>5120000000000000000000000000</t>
@@ -1162,10 +1162,10 @@
   <sheetPr/>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1174,18 +1174,19 @@
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23" style="3" customWidth="1"/>
+    <col min="8" max="8" width="23.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="28.875" style="3" customWidth="1"/>
     <col min="11" max="11" width="28.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" customWidth="1"/>
-    <col min="16" max="17" width="5.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.625" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1767,16 +1768,16 @@
         <v>700</v>
       </c>
       <c r="P12" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="9">
         <v>99</v>
       </c>
       <c r="R12" s="8">
-        <v>1000000000000</v>
+        <v>1000000000000000</v>
       </c>
       <c r="S12" s="8">
-        <v>1000000000000</v>
+        <v>1000000000000000</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:19">
@@ -1828,16 +1829,16 @@
         <v>800</v>
       </c>
       <c r="P13" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="9">
         <v>99</v>
       </c>
       <c r="R13" s="8">
-        <v>1000000000000</v>
+        <v>1e+16</v>
       </c>
       <c r="S13" s="8">
-        <v>1000000000000</v>
+        <v>1e+16</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:19">
@@ -1889,16 +1890,16 @@
         <v>900</v>
       </c>
       <c r="P14" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="9">
         <v>99</v>
       </c>
       <c r="R14" s="8">
-        <v>1000000000000</v>
+        <v>1e+17</v>
       </c>
       <c r="S14" s="8">
-        <v>1000000000000</v>
+        <v>1e+17</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:19">
@@ -1950,17 +1951,29 @@
         <v>1000</v>
       </c>
       <c r="P15" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="9">
         <v>99</v>
       </c>
       <c r="R15" s="8">
-        <v>1000000000000</v>
+        <v>1e+18</v>
       </c>
       <c r="S15" s="8">
-        <v>1000000000000</v>
-      </c>
+        <v>1e+18</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="6:6">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="18" customHeight="1" spans="6:6">
+      <c r="F18" s="8"/>
+    </row>
+    <row r="20" customHeight="1" spans="6:6">
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" customHeight="1" spans="6:6">
+      <c r="F21" s="8"/>
     </row>
     <row r="23" customHeight="1" spans="6:6">
       <c r="F23" s="8"/>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>MulDamageResist</t>
+  </si>
+  <si>
+    <t>Protect</t>
   </si>
   <si>
     <t>Exp</t>
@@ -1160,12 +1163,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1185,12 +1188,13 @@
     <col min="15" max="15" width="8" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.875" style="2" customWidth="1"/>
     <col min="17" max="17" width="7.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15.625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15.625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:19">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="4"/>
@@ -1207,8 +1211,9 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:19">
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="4"/>
@@ -1225,8 +1230,9 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:19">
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1274,18 +1280,21 @@
       <c r="Q3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="S3" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:19">
+      <c r="T3" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -1329,69 +1338,75 @@
       <c r="Q4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:19">
+      <c r="T4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>20</v>
+      <c r="R5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:19">
+        <v>21</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:20">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1402,22 +1417,22 @@
         <v>100</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="9">
         <v>100</v>
@@ -1437,14 +1452,17 @@
       <c r="Q6" s="9">
         <v>99</v>
       </c>
-      <c r="R6" s="8">
-        <v>10000000000</v>
+      <c r="R6" s="9">
+        <v>0</v>
       </c>
       <c r="S6" s="8">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:19">
+      <c r="T6" s="8">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:20">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1457,22 +1475,22 @@
         <v>200</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="9">
         <v>200</v>
@@ -1492,14 +1510,17 @@
       <c r="Q7" s="9">
         <v>99</v>
       </c>
-      <c r="R7" s="8">
-        <v>500000000000</v>
+      <c r="R7" s="9">
+        <v>0</v>
       </c>
       <c r="S7" s="8">
         <v>500000000000</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:19">
+      <c r="T7" s="8">
+        <v>500000000000</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:20">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1512,22 +1533,22 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L8" s="9">
         <v>300</v>
@@ -1547,14 +1568,17 @@
       <c r="Q8" s="9">
         <v>99</v>
       </c>
-      <c r="R8" s="8">
-        <v>1000000000000</v>
+      <c r="R8" s="9">
+        <v>0</v>
       </c>
       <c r="S8" s="8">
         <v>1000000000000</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:19">
+      <c r="T8" s="8">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:20">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1567,22 +1591,22 @@
         <v>400</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L9" s="9">
         <v>400</v>
@@ -1602,14 +1626,17 @@
       <c r="Q9" s="9">
         <v>99</v>
       </c>
-      <c r="R9" s="8">
-        <v>5000000000000</v>
+      <c r="R9" s="9">
+        <v>0</v>
       </c>
       <c r="S9" s="8">
         <v>5000000000000</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:19">
+      <c r="T9" s="8">
+        <v>5000000000000</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:20">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1622,22 +1649,22 @@
         <v>500</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" s="9">
         <v>500</v>
@@ -1657,14 +1684,17 @@
       <c r="Q10" s="9">
         <v>99</v>
       </c>
-      <c r="R10" s="8">
-        <v>10000000000000</v>
+      <c r="R10" s="9">
+        <v>0</v>
       </c>
       <c r="S10" s="8">
         <v>10000000000000</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:19">
+      <c r="T10" s="8">
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:20">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1677,22 +1707,22 @@
         <v>600</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="9">
         <v>600</v>
@@ -1712,19 +1742,22 @@
       <c r="Q11" s="9">
         <v>99</v>
       </c>
-      <c r="R11" s="8">
-        <v>100000000000000</v>
+      <c r="R11" s="9">
+        <v>0</v>
       </c>
       <c r="S11" s="8">
         <v>100000000000000</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:19">
+      <c r="T11" s="8">
+        <v>100000000000000</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:20">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>7</v>
@@ -1738,22 +1771,22 @@
         <v>700</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="9">
         <v>700</v>
@@ -1773,19 +1806,22 @@
       <c r="Q12" s="9">
         <v>99</v>
       </c>
-      <c r="R12" s="8">
-        <v>1000000000000000</v>
+      <c r="R12" s="9">
+        <v>20</v>
       </c>
       <c r="S12" s="8">
-        <v>1000000000000000</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:19">
+        <v>200000000000000</v>
+      </c>
+      <c r="T12" s="8">
+        <v>200000000000000</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:20">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1799,22 +1835,22 @@
         <v>800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" s="9">
         <v>800</v>
@@ -1834,19 +1870,22 @@
       <c r="Q13" s="9">
         <v>99</v>
       </c>
-      <c r="R13" s="8">
-        <v>1e+16</v>
+      <c r="R13" s="9">
+        <v>40</v>
       </c>
       <c r="S13" s="8">
-        <v>1e+16</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:19">
+        <v>400000000000000</v>
+      </c>
+      <c r="T13" s="8">
+        <v>400000000000000</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
@@ -1860,22 +1899,22 @@
         <v>900</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="9">
         <v>900</v>
@@ -1895,19 +1934,22 @@
       <c r="Q14" s="9">
         <v>99</v>
       </c>
-      <c r="R14" s="8">
-        <v>1e+17</v>
+      <c r="R14" s="9">
+        <v>60</v>
       </c>
       <c r="S14" s="8">
-        <v>1e+17</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:19">
+        <v>800000000000000</v>
+      </c>
+      <c r="T14" s="8">
+        <v>800000000000000</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -1921,22 +1963,22 @@
         <v>1000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="9">
         <v>1000</v>
@@ -1956,11 +1998,14 @@
       <c r="Q15" s="9">
         <v>99</v>
       </c>
-      <c r="R15" s="8">
-        <v>1e+18</v>
+      <c r="R15" s="9">
+        <v>80</v>
       </c>
       <c r="S15" s="8">
-        <v>1e+18</v>
+        <v>1600000000000000</v>
+      </c>
+      <c r="T15" s="8">
+        <v>1600000000000000</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="6:6">
@@ -2023,7 +2068,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 C3:C4 L3:L4 M3:M4 N3:N4 O3:O4 P3:P4 Q3:Q4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 C3:C4 L3:L4 M3:M4 N3:N4 O3:O4 P3:P4 Q3:Q4 R3:R4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -149,16 +149,16 @@
     <t>32000000000000000000000000</t>
   </si>
   <si>
+    <t>10000000000000000000</t>
+  </si>
+  <si>
+    <t>640000000000000000000</t>
+  </si>
+  <si>
+    <t>6400000000000000000000000000</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>10000000000000000000</t>
-  </si>
-  <si>
-    <t>640000000000000000000</t>
-  </si>
-  <si>
-    <t>6400000000000000000000000000</t>
   </si>
   <si>
     <t>1000000000000000000000</t>
@@ -1165,10 +1165,10 @@
   <sheetPr/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S26" sqref="S26"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1752,13 +1752,7 @@
         <v>100000000000000</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:20">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="12" customHeight="1" spans="3:20">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1771,22 +1765,22 @@
         <v>700</v>
       </c>
       <c r="F12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="L12" s="9">
         <v>700</v>
@@ -1818,10 +1812,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:20">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>8</v>
@@ -1882,10 +1876,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
@@ -1946,10 +1940,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -149,10 +149,10 @@
     <t>32000000000000000000000000</t>
   </si>
   <si>
-    <t>10000000000000000000</t>
-  </si>
-  <si>
-    <t>640000000000000000000</t>
+    <t>20000000000000000000</t>
+  </si>
+  <si>
+    <t>320000000000000000000</t>
   </si>
   <si>
     <t>6400000000000000000000000000</t>
@@ -161,28 +161,28 @@
     <t>#</t>
   </si>
   <si>
-    <t>1000000000000000000000</t>
-  </si>
-  <si>
-    <t>128000000000000000000000</t>
+    <t>4000000000000000000000</t>
+  </si>
+  <si>
+    <t>32000000000000000000000</t>
   </si>
   <si>
     <t>1280000000000000000000000000000</t>
   </si>
   <si>
-    <t>100000000000000000000000</t>
-  </si>
-  <si>
-    <t>25600000000000000000000000</t>
+    <t>800000000000000000000000</t>
+  </si>
+  <si>
+    <t>3200000000000000000000000</t>
   </si>
   <si>
     <t>256000000000000000000000000000000</t>
   </si>
   <si>
-    <t>10000000000000000000000000</t>
-  </si>
-  <si>
-    <t>5120000000000000000000000000</t>
+    <t>160000000000000000000000000</t>
+  </si>
+  <si>
+    <t>320000000000000000000000000</t>
   </si>
   <si>
     <t>51200000000000000000000000000000000</t>
@@ -1168,7 +1168,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R6" s="9">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R7" s="9">
         <v>0</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R8" s="9">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R9" s="9">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R10" s="9">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="Q11" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R11" s="9">
         <v>0</v>
@@ -1798,7 +1798,7 @@
         <v>20</v>
       </c>
       <c r="Q12" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R12" s="9">
         <v>20</v>
@@ -1862,7 +1862,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R13" s="9">
         <v>40</v>
@@ -1926,7 +1926,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R14" s="9">
         <v>60</v>
@@ -1990,7 +1990,7 @@
         <v>50</v>
       </c>
       <c r="Q15" s="9">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="R15" s="9">
         <v>80</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <t>20000000000000000000</t>
   </si>
   <si>
-    <t>320000000000000000000</t>
+    <t>640000000000000000000</t>
   </si>
   <si>
     <t>6400000000000000000000000000</t>
@@ -164,7 +164,7 @@
     <t>4000000000000000000000</t>
   </si>
   <si>
-    <t>32000000000000000000000</t>
+    <t>128000000000000000000000</t>
   </si>
   <si>
     <t>1280000000000000000000000000000</t>
@@ -173,7 +173,7 @@
     <t>800000000000000000000000</t>
   </si>
   <si>
-    <t>3200000000000000000000000</t>
+    <t>25600000000000000000000000</t>
   </si>
   <si>
     <t>256000000000000000000000000000000</t>
@@ -182,7 +182,7 @@
     <t>160000000000000000000000000</t>
   </si>
   <si>
-    <t>320000000000000000000000000</t>
+    <t>5120000000000000000000000000</t>
   </si>
   <si>
     <t>51200000000000000000000000000000000</t>
@@ -1168,7 +1168,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1165,10 +1165,10 @@
   <sheetPr/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1801,7 +1801,7 @@
         <v>70</v>
       </c>
       <c r="R12" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S12" s="8">
         <v>200000000000000</v>
@@ -1865,7 +1865,7 @@
         <v>70</v>
       </c>
       <c r="R13" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S13" s="8">
         <v>400000000000000</v>
@@ -1929,7 +1929,7 @@
         <v>70</v>
       </c>
       <c r="R14" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S14" s="8">
         <v>800000000000000</v>
@@ -1993,7 +1993,7 @@
         <v>70</v>
       </c>
       <c r="R15" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S15" s="8">
         <v>1600000000000000</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1165,10 +1165,10 @@
   <sheetPr/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1801,7 +1801,7 @@
         <v>70</v>
       </c>
       <c r="R12" s="9">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S12" s="8">
         <v>200000000000000</v>
@@ -1865,7 +1865,7 @@
         <v>70</v>
       </c>
       <c r="R13" s="9">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S13" s="8">
         <v>400000000000000</v>
@@ -1929,7 +1929,7 @@
         <v>70</v>
       </c>
       <c r="R14" s="9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S14" s="8">
         <v>800000000000000</v>
@@ -1993,7 +1993,7 @@
         <v>70</v>
       </c>
       <c r="R15" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="S15" s="8">
         <v>1600000000000000</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -158,16 +158,16 @@
     <t>6400000000000000000000000000</t>
   </si>
   <si>
+    <t>4000000000000000000000</t>
+  </si>
+  <si>
+    <t>128000000000000000000000</t>
+  </si>
+  <si>
+    <t>1280000000000000000000000000000</t>
+  </si>
+  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>4000000000000000000000</t>
-  </si>
-  <si>
-    <t>128000000000000000000000</t>
-  </si>
-  <si>
-    <t>1280000000000000000000000000000</t>
   </si>
   <si>
     <t>800000000000000000000000</t>
@@ -1168,7 +1168,7 @@
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1810,13 +1810,7 @@
         <v>200000000000000</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:20">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="13" customHeight="1" spans="3:20">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1829,22 +1823,22 @@
         <v>800</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>45</v>
       </c>
       <c r="L13" s="9">
         <v>800</v>
@@ -1862,7 +1856,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="R13" s="9">
         <v>50</v>
@@ -1876,10 +1870,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1">
         <v>9</v>
@@ -1926,7 +1920,7 @@
         <v>40</v>
       </c>
       <c r="Q14" s="9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="R14" s="9">
         <v>70</v>
@@ -1940,10 +1934,10 @@
     </row>
     <row r="15" customHeight="1" spans="1:20">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1">
         <v>10</v>
@@ -1990,7 +1984,7 @@
         <v>50</v>
       </c>
       <c r="Q15" s="9">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="R15" s="9">
         <v>90</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>1280000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>#</t>
   </si>
   <si>
     <t>800000000000000000000000</t>
@@ -1165,10 +1162,10 @@
   <sheetPr/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1868,13 +1865,7 @@
         <v>400000000000000</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:20">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="14" customHeight="1" spans="3:20">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1887,22 +1878,22 @@
         <v>900</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="L14" s="9">
         <v>900</v>
@@ -1932,13 +1923,7 @@
         <v>800000000000000</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:20">
-      <c r="A15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="15" customHeight="1" spans="3:20">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1951,22 +1936,22 @@
         <v>1000</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="L15" s="9">
         <v>1000</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -176,13 +176,13 @@
     <t>256000000000000000000000000000000</t>
   </si>
   <si>
-    <t>160000000000000000000000000</t>
+    <t>80000000000000000000000000</t>
   </si>
   <si>
     <t>5120000000000000000000000000</t>
   </si>
   <si>
-    <t>51200000000000000000000000000000000</t>
+    <t>512000000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1165,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1178,7 +1178,7 @@
     <col min="7" max="7" width="23" style="3" customWidth="1"/>
     <col min="8" max="8" width="23.75" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="31.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="28.25" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
@@ -1984,6 +1984,9 @@
     <row r="16" customHeight="1" spans="6:6">
       <c r="F16" s="8"/>
     </row>
+    <row r="17" customHeight="1" spans="6:6">
+      <c r="F17" s="8"/>
+    </row>
     <row r="18" customHeight="1" spans="6:6">
       <c r="F18" s="8"/>
     </row>
@@ -2041,7 +2044,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 I3 J3 K3 D4 E4 F4 G4 H4 I4 J4 K4 C5 D5 E5 F5 G5 H5 I5 J5 K5 L5 M5 N5 O5 P5 Q5 R5 C3:C4 L3:L4 M3:M4 N3:N4 O3:O4 P3:P4 Q3:Q4 R3:R4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:K3 E4:K4 E5:R5 C3:C5 D4:D5 L3:R4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Accuracy</t>
   </si>
   <si>
+    <t>Miss</t>
+  </si>
+  <si>
     <t>MulDamageResist</t>
   </si>
   <si>
@@ -183,6 +186,42 @@
   </si>
   <si>
     <t>512000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>800000000000000000000000000</t>
+  </si>
+  <si>
+    <t>51200000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>99900000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>8000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>512000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9990000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>80000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>5120000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>99900000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9990000000000000000000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1160,38 +1199,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="31.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="28.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="27.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="40.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="41" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="15" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.625" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="7.375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.5" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="15" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.625" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:20">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="4"/>
@@ -1209,8 +1250,9 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="4"/>
@@ -1228,8 +1270,9 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
@@ -1280,18 +1323,21 @@
       <c r="R3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="T3" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -1338,72 +1384,78 @@
       <c r="R4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="T4" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:20">
+      <c r="U4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="R5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:20">
+        <v>22</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:21">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1414,22 +1466,22 @@
         <v>100</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="9">
         <v>100</v>
@@ -1447,19 +1499,22 @@
         <v>0</v>
       </c>
       <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
         <v>70</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <v>0</v>
-      </c>
-      <c r="S6" s="8">
-        <v>10000000000</v>
       </c>
       <c r="T6" s="8">
         <v>10000000000</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:20">
+      <c r="U6" s="8">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:21">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1472,22 +1527,22 @@
         <v>200</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L7" s="9">
         <v>200</v>
@@ -1505,19 +1560,22 @@
         <v>0</v>
       </c>
       <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
         <v>70</v>
       </c>
-      <c r="R7" s="9">
+      <c r="S7" s="9">
         <v>0</v>
-      </c>
-      <c r="S7" s="8">
-        <v>500000000000</v>
       </c>
       <c r="T7" s="8">
         <v>500000000000</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:20">
+      <c r="U7" s="8">
+        <v>500000000000</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:21">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1530,22 +1588,22 @@
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="9">
         <v>300</v>
@@ -1563,19 +1621,22 @@
         <v>0</v>
       </c>
       <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
         <v>70</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>1000000000000</v>
       </c>
       <c r="T8" s="8">
         <v>1000000000000</v>
       </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:20">
+      <c r="U8" s="8">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:21">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1588,22 +1649,22 @@
         <v>400</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9">
         <v>400</v>
@@ -1621,19 +1682,22 @@
         <v>0</v>
       </c>
       <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
         <v>70</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S9" s="9">
         <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>5000000000000</v>
       </c>
       <c r="T9" s="8">
         <v>5000000000000</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:20">
+      <c r="U9" s="8">
+        <v>5000000000000</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:21">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1646,22 +1710,22 @@
         <v>500</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L10" s="9">
         <v>500</v>
@@ -1679,19 +1743,22 @@
         <v>0</v>
       </c>
       <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9">
         <v>70</v>
       </c>
-      <c r="R10" s="9">
+      <c r="S10" s="9">
         <v>0</v>
-      </c>
-      <c r="S10" s="8">
-        <v>10000000000000</v>
       </c>
       <c r="T10" s="8">
         <v>10000000000000</v>
       </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:20">
+      <c r="U10" s="8">
+        <v>10000000000000</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:21">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1704,22 +1771,22 @@
         <v>600</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="9">
         <v>600</v>
@@ -1737,19 +1804,22 @@
         <v>10</v>
       </c>
       <c r="Q11" s="9">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9">
         <v>70</v>
       </c>
-      <c r="R11" s="9">
+      <c r="S11" s="9">
         <v>0</v>
-      </c>
-      <c r="S11" s="8">
-        <v>100000000000000</v>
       </c>
       <c r="T11" s="8">
         <v>100000000000000</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:20">
+      <c r="U11" s="8">
+        <v>100000000000000</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:21">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1762,22 +1832,22 @@
         <v>700</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="9">
         <v>700</v>
@@ -1795,19 +1865,22 @@
         <v>20</v>
       </c>
       <c r="Q12" s="9">
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
         <v>70</v>
       </c>
-      <c r="R12" s="9">
+      <c r="S12" s="9">
         <v>30</v>
-      </c>
-      <c r="S12" s="8">
-        <v>200000000000000</v>
       </c>
       <c r="T12" s="8">
         <v>200000000000000</v>
       </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:20">
+      <c r="U12" s="8">
+        <v>200000000000000</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:21">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1820,22 +1893,22 @@
         <v>800</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" s="9">
         <v>800</v>
@@ -1853,19 +1926,22 @@
         <v>30</v>
       </c>
       <c r="Q13" s="9">
+        <v>0</v>
+      </c>
+      <c r="R13" s="9">
         <v>80</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S13" s="9">
         <v>50</v>
-      </c>
-      <c r="S13" s="8">
-        <v>400000000000000</v>
       </c>
       <c r="T13" s="8">
         <v>400000000000000</v>
       </c>
-    </row>
-    <row r="14" customHeight="1" spans="3:20">
+      <c r="U13" s="8">
+        <v>400000000000000</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="3:21">
       <c r="C14" s="1">
         <v>9</v>
       </c>
@@ -1878,22 +1954,22 @@
         <v>900</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="9">
         <v>900</v>
@@ -1911,19 +1987,22 @@
         <v>40</v>
       </c>
       <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
         <v>90</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="9">
         <v>70</v>
-      </c>
-      <c r="S14" s="8">
-        <v>800000000000000</v>
       </c>
       <c r="T14" s="8">
         <v>800000000000000</v>
       </c>
-    </row>
-    <row r="15" customHeight="1" spans="3:20">
+      <c r="U14" s="8">
+        <v>800000000000000</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:21">
       <c r="C15" s="1">
         <v>10</v>
       </c>
@@ -1936,22 +2015,22 @@
         <v>1000</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="9">
         <v>1000</v>
@@ -1969,26 +2048,207 @@
         <v>50</v>
       </c>
       <c r="Q15" s="9">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
         <v>95</v>
       </c>
-      <c r="R15" s="9">
+      <c r="S15" s="9">
         <v>90</v>
-      </c>
-      <c r="S15" s="8">
-        <v>1600000000000000</v>
       </c>
       <c r="T15" s="8">
         <v>1600000000000000</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="6:6">
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" customHeight="1" spans="6:6">
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" customHeight="1" spans="6:6">
-      <c r="F18" s="8"/>
+      <c r="U15" s="8">
+        <v>1600000000000000</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:21">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>1001</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P16" s="9">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>5</v>
+      </c>
+      <c r="R16" s="9">
+        <v>100</v>
+      </c>
+      <c r="S16" s="9">
+        <v>90</v>
+      </c>
+      <c r="T16" s="8">
+        <v>3200000000000000</v>
+      </c>
+      <c r="U16" s="8">
+        <v>3200000000000000</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="3:21">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>1101</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>10</v>
+      </c>
+      <c r="R17" s="9">
+        <v>100</v>
+      </c>
+      <c r="S17" s="9">
+        <v>90</v>
+      </c>
+      <c r="T17" s="8">
+        <v>6400000000000000</v>
+      </c>
+      <c r="U17" s="8">
+        <v>6400000000000000</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:21">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>1201</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="9">
+        <v>1000</v>
+      </c>
+      <c r="N18" s="9">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1000</v>
+      </c>
+      <c r="P18" s="9">
+        <v>65</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>15</v>
+      </c>
+      <c r="R18" s="9">
+        <v>100</v>
+      </c>
+      <c r="S18" s="9">
+        <v>90</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1.28e+16</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1.28e+16</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="6:10">
+      <c r="F19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" customHeight="1" spans="6:6">
       <c r="F20" s="8"/>
@@ -2044,7 +2304,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:K3 E4:K4 E5:R5 C3:C5 D4:D5 L3:R4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:K3 Q3 E4:K4 Q4 E5:P5 Q5 R5:S5 C3:C5 D4:D5 L3:P4 R3:S4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -47,51 +47,51 @@
     <t>RiseAttr</t>
   </si>
   <si>
+    <t>RiseDef</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>RiseHp</t>
+  </si>
+  <si>
+    <t>DamageIncrea</t>
+  </si>
+  <si>
+    <t>DamageResist</t>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>CritDamage</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>MulDamageResist</t>
+  </si>
+  <si>
+    <t>Protect</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>Def</t>
   </si>
   <si>
-    <t>RiseDef</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>RiseHp</t>
-  </si>
-  <si>
-    <t>DamageIncrea</t>
-  </si>
-  <si>
-    <t>DamageResist</t>
-  </si>
-  <si>
-    <t>CritRate</t>
-  </si>
-  <si>
-    <t>CritDamage</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>MulDamageResist</t>
-  </si>
-  <si>
-    <t>Protect</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -222,6 +222,30 @@
   </si>
   <si>
     <t>9990000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>800000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>51200000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>99900000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>8000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>512000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9990000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1228,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1214,18 +1238,18 @@
     <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="27.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="41" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="42.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="50.125" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.875" style="2" customWidth="1"/>
     <col min="17" max="17" width="7.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="7.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="11.375" style="2" customWidth="1"/>
     <col min="19" max="19" width="9.625" style="2" customWidth="1"/>
     <col min="20" max="20" width="15" style="2" customWidth="1"/>
     <col min="21" max="21" width="15.625" style="2" customWidth="1"/>
@@ -1290,54 +1314,54 @@
       <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>1</v>
@@ -1352,46 +1376,46 @@
         <v>4</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:21">
@@ -2094,16 +2118,20 @@
         <v>55</v>
       </c>
       <c r="L16" s="9">
-        <v>1000</v>
+        <f>L15+200</f>
+        <v>1200</v>
       </c>
       <c r="M16" s="9">
-        <v>1000</v>
+        <f t="shared" ref="M16:M20" si="2">M15+200</f>
+        <v>1200</v>
       </c>
       <c r="N16" s="9">
-        <v>1000</v>
+        <f t="shared" ref="N16:N20" si="3">N15+200</f>
+        <v>1200</v>
       </c>
       <c r="O16" s="9">
-        <v>1000</v>
+        <f t="shared" ref="O16:O20" si="4">O15+200</f>
+        <v>1200</v>
       </c>
       <c r="P16" s="9">
         <v>55</v>
@@ -2112,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="R16" s="9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S16" s="9">
         <v>90</v>
@@ -2155,16 +2183,20 @@
         <v>59</v>
       </c>
       <c r="L17" s="9">
-        <v>1000</v>
+        <f t="shared" ref="L16:L20" si="5">L16+200</f>
+        <v>1400</v>
       </c>
       <c r="M17" s="9">
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1400</v>
       </c>
       <c r="N17" s="9">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>1400</v>
       </c>
       <c r="O17" s="9">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1400</v>
       </c>
       <c r="P17" s="9">
         <v>60</v>
@@ -2173,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="R17" s="9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S17" s="9">
         <v>90</v>
@@ -2216,16 +2248,20 @@
         <v>63</v>
       </c>
       <c r="L18" s="9">
-        <v>1000</v>
+        <f t="shared" si="5"/>
+        <v>1600</v>
       </c>
       <c r="M18" s="9">
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1600</v>
       </c>
       <c r="N18" s="9">
-        <v>1000</v>
+        <f t="shared" si="3"/>
+        <v>1600</v>
       </c>
       <c r="O18" s="9">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>1600</v>
       </c>
       <c r="P18" s="9">
         <v>65</v>
@@ -2234,7 +2270,7 @@
         <v>15</v>
       </c>
       <c r="R18" s="9">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="S18" s="9">
         <v>90</v>
@@ -2246,12 +2282,135 @@
         <v>1.28e+16</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="6:10">
-      <c r="F19" s="8"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" customHeight="1" spans="6:6">
-      <c r="F20" s="8"/>
+    <row r="19" customHeight="1" spans="3:21">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1301</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="5"/>
+        <v>1800</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
+      <c r="P19" s="9">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>20</v>
+      </c>
+      <c r="R19" s="9">
+        <v>95</v>
+      </c>
+      <c r="S19" s="9">
+        <v>90</v>
+      </c>
+      <c r="T19" s="8">
+        <v>2.56e+16</v>
+      </c>
+      <c r="U19" s="8">
+        <v>2.56e+16</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:21">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>1401</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="P20" s="9">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>25</v>
+      </c>
+      <c r="R20" s="9">
+        <v>95</v>
+      </c>
+      <c r="S20" s="9">
+        <v>90</v>
+      </c>
+      <c r="T20" s="8">
+        <v>5.12e+16</v>
+      </c>
+      <c r="U20" s="8">
+        <v>5.12e+16</v>
+      </c>
     </row>
     <row r="21" customHeight="1" spans="6:6">
       <c r="F21" s="8"/>
@@ -2304,7 +2463,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:K3 Q3 E4:K4 Q4 E5:P5 Q5 R5:S5 C3:C5 D4:D5 L3:P4 R3:S4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:K3 E4:K4 E5:P5 C3:C5 D4:D5 L3:P4 Q3:S5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -191,61 +191,64 @@
     <t>800000000000000000000000000</t>
   </si>
   <si>
+    <t>160000000000000000000000000</t>
+  </si>
+  <si>
+    <t>512000000000000000000000000000</t>
+  </si>
+  <si>
     <t>51200000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>99900000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>8000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>512000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9990000000000000000000000000000000000000000</t>
+    <t>16000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>3200000000000000000000000000</t>
+  </si>
+  <si>
+    <t>5120000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>320000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>64000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>51200000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>80000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>5120000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>99900000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9990000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>800000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>51200000000000000000000000000000</t>
+    <t>6400000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>1200000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>512000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>120000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>24000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>5120000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>99900000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>8000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>512000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9990000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>999000000000000000000000000000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1225,10 +1228,10 @@
   <sheetPr/>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1241,7 +1244,7 @@
     <col min="6" max="6" width="30.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="27.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="31.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.75" style="3" customWidth="1"/>
+    <col min="9" max="9" width="29" style="3" customWidth="1"/>
     <col min="10" max="10" width="42.75" style="3" customWidth="1"/>
     <col min="11" max="11" width="50.125" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
@@ -2103,19 +2106,19 @@
         <v>52</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L16" s="9">
         <f>L15+200</f>
@@ -2165,22 +2168,22 @@
         <v>1200</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" ref="L16:L20" si="5">L16+200</f>
@@ -2230,22 +2233,22 @@
         <v>1300</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="5"/>
@@ -2295,22 +2298,22 @@
         <v>1400</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="5"/>
@@ -2360,22 +2363,22 @@
         <v>1500</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="5"/>
@@ -2412,14 +2415,27 @@
         <v>5.12e+16</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="6:6">
+    <row r="21" customHeight="1" spans="6:8">
       <c r="F21" s="8"/>
-    </row>
-    <row r="23" customHeight="1" spans="6:6">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" customHeight="1" spans="8:8">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" customHeight="1" spans="6:8">
       <c r="F23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" customHeight="1" spans="6:6">
       <c r="F24" s="8"/>
+    </row>
+    <row r="25" customHeight="1" spans="6:8">
+      <c r="F25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" customHeight="1" spans="6:8">
+      <c r="F26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="8"/>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1228,10 +1228,10 @@
   <sheetPr/>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -2140,7 +2140,7 @@
         <v>55</v>
       </c>
       <c r="Q16" s="9">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="R16" s="9">
         <v>95</v>
@@ -2205,7 +2205,8 @@
         <v>60</v>
       </c>
       <c r="Q17" s="9">
-        <v>10</v>
+        <f t="shared" ref="Q17:Q20" si="6">Q16+5</f>
+        <v>25</v>
       </c>
       <c r="R17" s="9">
         <v>95</v>
@@ -2270,7 +2271,8 @@
         <v>65</v>
       </c>
       <c r="Q18" s="9">
-        <v>15</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="R18" s="9">
         <v>95</v>
@@ -2335,7 +2337,8 @@
         <v>70</v>
       </c>
       <c r="Q19" s="9">
-        <v>20</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="R19" s="9">
         <v>95</v>
@@ -2400,7 +2403,8 @@
         <v>75</v>
       </c>
       <c r="Q20" s="9">
-        <v>25</v>
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="R20" s="9">
         <v>95</v>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -1231,7 +1231,7 @@
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -2281,10 +2281,10 @@
         <v>90</v>
       </c>
       <c r="T18" s="8">
-        <v>1.28e+16</v>
+        <v>1e+16</v>
       </c>
       <c r="U18" s="8">
-        <v>1.28e+16</v>
+        <v>1e+16</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="3:21">
@@ -2347,10 +2347,10 @@
         <v>90</v>
       </c>
       <c r="T19" s="8">
-        <v>2.56e+16</v>
+        <v>2e+16</v>
       </c>
       <c r="U19" s="8">
-        <v>2.56e+16</v>
+        <v>2e+16</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="3:21">
@@ -2413,10 +2413,10 @@
         <v>90</v>
       </c>
       <c r="T20" s="8">
-        <v>5.12e+16</v>
+        <v>3e+16</v>
       </c>
       <c r="U20" s="8">
-        <v>5.12e+16</v>
+        <v>3e+16</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="6:8">

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -901,6 +901,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1228,10 +1229,10 @@
   <sheetPr/>
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1353,10 +1354,10 @@
       <c r="S3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1414,10 +1415,10 @@
       <c r="S4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="U4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1475,10 +1476,10 @@
       <c r="S5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="U5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1492,22 +1493,22 @@
       <c r="E6" s="7">
         <v>100</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="9">
@@ -1553,22 +1554,22 @@
         <f t="shared" ref="E7:E22" si="1">E6+100</f>
         <v>200</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="12" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="9">
@@ -1614,22 +1615,22 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="9">
@@ -1675,22 +1676,22 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>33</v>
       </c>
       <c r="L9" s="9">
@@ -1736,22 +1737,22 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="12" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="9">
@@ -1797,22 +1798,22 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>39</v>
       </c>
       <c r="L11" s="9">
@@ -1858,22 +1859,22 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="9">
@@ -1919,22 +1920,22 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>45</v>
       </c>
       <c r="L13" s="9">
@@ -1980,22 +1981,22 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>48</v>
       </c>
       <c r="L14" s="9">
@@ -2041,22 +2042,22 @@
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>51</v>
       </c>
       <c r="L15" s="9">
@@ -2102,22 +2103,22 @@
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>56</v>
       </c>
       <c r="L16" s="9">
@@ -2167,22 +2168,22 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>60</v>
       </c>
       <c r="L17" s="9">
@@ -2233,22 +2234,22 @@
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>64</v>
       </c>
       <c r="L18" s="9">
@@ -2299,22 +2300,22 @@
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="12" t="s">
         <v>68</v>
       </c>
       <c r="L19" s="9">
@@ -2365,22 +2366,22 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>72</v>
       </c>
       <c r="L20" s="9">
@@ -2423,29 +2424,25 @@
       <c r="F21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" customHeight="1" spans="8:8">
+    <row r="22" customHeight="1" spans="8:10">
       <c r="H22" s="8"/>
-    </row>
-    <row r="23" customHeight="1" spans="6:8">
-      <c r="F23" s="8"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" customHeight="1" spans="8:8">
       <c r="H23" s="8"/>
     </row>
-    <row r="24" customHeight="1" spans="6:6">
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" customHeight="1" spans="6:8">
-      <c r="F25" s="8"/>
+    <row r="25" customHeight="1" spans="8:8">
       <c r="H25" s="8"/>
     </row>
-    <row r="26" customHeight="1" spans="6:8">
-      <c r="F26" s="8"/>
+    <row r="26" customHeight="1" spans="8:8">
       <c r="H26" s="8"/>
     </row>
     <row r="27" customHeight="1" spans="8:9">
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" customHeight="1" spans="8:9">
+    <row r="28" customHeight="1" spans="7:9">
+      <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
     </row>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -44,16 +44,19 @@
     <t>Attr</t>
   </si>
   <si>
-    <t>RiseAttr</t>
-  </si>
-  <si>
-    <t>RiseDef</t>
+    <t>AttrRise</t>
+  </si>
+  <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>DefRise</t>
   </si>
   <si>
     <t>HP</t>
   </si>
   <si>
-    <t>RiseHp</t>
+    <t>HpRise</t>
   </si>
   <si>
     <t>DamageIncrea</t>
@@ -89,9 +92,6 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Def</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -191,24 +191,15 @@
     <t>800000000000000000000000000</t>
   </si>
   <si>
-    <t>160000000000000000000000000</t>
-  </si>
-  <si>
     <t>512000000000000000000000000000</t>
   </si>
   <si>
-    <t>51200000000000000000000000000</t>
-  </si>
-  <si>
     <t>999000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>16000000000000000000000000000</t>
   </si>
   <si>
-    <t>3200000000000000000000000000</t>
-  </si>
-  <si>
     <t>5120000000000000000000000000000</t>
   </si>
   <si>
@@ -218,9 +209,6 @@
     <t>320000000000000000000000000000</t>
   </si>
   <si>
-    <t>64000000000000000000000000000</t>
-  </si>
-  <si>
     <t>51200000000000000000000000000000</t>
   </si>
   <si>
@@ -230,9 +218,6 @@
     <t>6400000000000000000000000000000</t>
   </si>
   <si>
-    <t>1200000000000000000000000000000</t>
-  </si>
-  <si>
     <t>512000000000000000000000000000000</t>
   </si>
   <si>
@@ -242,13 +227,55 @@
     <t>120000000000000000000000000000000</t>
   </si>
   <si>
-    <t>24000000000000000000000000000000</t>
-  </si>
-  <si>
     <t>5120000000000000000000000000000000</t>
   </si>
   <si>
-    <t>999000000000000000000000000000000000000000000000000</t>
+    <t>999000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>999000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -882,13 +909,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,15 +926,17 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1232,7 +1264,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1242,19 +1274,18 @@
     <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29" style="3" customWidth="1"/>
-    <col min="10" max="10" width="42.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="50.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.75" style="4" customWidth="1"/>
+    <col min="8" max="8" width="34.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="4" customWidth="1"/>
+    <col min="10" max="10" width="54.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="4" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="7.375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="11.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.625" style="2" customWidth="1"/>
+    <col min="17" max="18" width="7.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.125" style="2" customWidth="1"/>
     <col min="20" max="20" width="15" style="2" customWidth="1"/>
     <col min="21" max="21" width="15.625" style="2" customWidth="1"/>
     <col min="22" max="16384" width="9" style="2"/>
@@ -1263,12 +1294,12 @@
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1283,12 +1314,12 @@
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1303,183 +1334,183 @@
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="T3" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:21">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1487,58 +1518,58 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
         <v>100</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="12" t="s">
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="9">
+      <c r="K6" s="11">
+        <v>1</v>
+      </c>
+      <c r="L6" s="12">
         <v>100</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="12">
         <v>100</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="12">
         <v>100</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="12">
         <v>100</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="12">
         <v>0</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="12">
         <v>0</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="12">
         <v>70</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="12">
         <v>0</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="10">
         <v>10000000000</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="10">
         <v>10000000000</v>
       </c>
     </row>
@@ -1547,59 +1578,59 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D22" si="0">E6+1</f>
+        <f t="shared" ref="D7:D25" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E22" si="1">E6+100</f>
+        <f t="shared" ref="E7:E25" si="1">E6+100</f>
         <v>200</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="I7" s="11">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="9">
+      <c r="K7" s="11">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
         <v>200</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="12">
         <v>200</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="12">
         <v>200</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="12">
         <v>200</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="12">
         <v>0</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="12">
         <v>0</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="12">
         <v>70</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="12">
         <v>0</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="10">
         <v>500000000000</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="10">
         <v>500000000000</v>
       </c>
     </row>
@@ -1615,52 +1646,52 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="9">
+      <c r="K8" s="11">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
         <v>300</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="12">
         <v>300</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="12">
         <v>300</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="12">
         <v>300</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="12">
         <v>0</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="12">
         <v>0</v>
       </c>
-      <c r="R8" s="9">
+      <c r="R8" s="12">
         <v>70</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="12">
         <v>0</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="10">
         <v>1000000000000</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="10">
         <v>1000000000000</v>
       </c>
     </row>
@@ -1676,52 +1707,52 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="12" t="s">
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="K9" s="11">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
         <v>400</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="12">
         <v>400</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="12">
         <v>400</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="12">
         <v>400</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="12">
         <v>0</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="12">
         <v>0</v>
       </c>
-      <c r="R9" s="9">
+      <c r="R9" s="12">
         <v>70</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="12">
         <v>0</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="10">
         <v>5000000000000</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="10">
         <v>5000000000000</v>
       </c>
     </row>
@@ -1737,52 +1768,52 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="9">
+      <c r="K10" s="11">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12">
         <v>500</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="12">
         <v>500</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="12">
         <v>500</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="12">
         <v>500</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="12">
         <v>0</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="12">
         <v>0</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="12">
         <v>70</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="12">
         <v>0</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="10">
         <v>10000000000000</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="10">
         <v>10000000000000</v>
       </c>
     </row>
@@ -1798,52 +1829,52 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="K11" s="11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
         <v>600</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="12">
         <v>600</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="12">
         <v>600</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="12">
         <v>600</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="12">
         <v>10</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="12">
         <v>0</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="12">
         <v>70</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="12">
         <v>0</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="10">
         <v>100000000000000</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="10">
         <v>100000000000000</v>
       </c>
     </row>
@@ -1859,52 +1890,52 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="9">
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12">
         <v>700</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="12">
         <v>700</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="12">
         <v>700</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="12">
         <v>700</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="12">
         <v>20</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q12" s="12">
         <v>0</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="12">
         <v>70</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="12">
         <v>30</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="10">
         <v>200000000000000</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="10">
         <v>200000000000000</v>
       </c>
     </row>
@@ -1920,52 +1951,52 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="12" t="s">
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L13" s="9">
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
         <v>800</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="12">
         <v>800</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="12">
         <v>800</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="12">
         <v>800</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="12">
         <v>30</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="Q13" s="12">
         <v>0</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="12">
         <v>80</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="12">
         <v>50</v>
       </c>
-      <c r="T13" s="8">
+      <c r="T13" s="10">
         <v>400000000000000</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="10">
         <v>400000000000000</v>
       </c>
     </row>
@@ -1981,52 +2012,52 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="9">
+      <c r="K14" s="11">
+        <v>1</v>
+      </c>
+      <c r="L14" s="12">
         <v>900</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="12">
         <v>900</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="12">
         <v>900</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="12">
         <v>900</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="12">
         <v>40</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q14" s="12">
         <v>0</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="12">
         <v>90</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="12">
         <v>70</v>
       </c>
-      <c r="T14" s="8">
+      <c r="T14" s="10">
         <v>800000000000000</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="10">
         <v>800000000000000</v>
       </c>
     </row>
@@ -2042,52 +2073,52 @@
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="12">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="12">
         <v>50</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" s="9">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="9">
-        <v>1000</v>
-      </c>
-      <c r="N15" s="9">
-        <v>1000</v>
-      </c>
-      <c r="O15" s="9">
-        <v>1000</v>
-      </c>
-      <c r="P15" s="9">
-        <v>50</v>
-      </c>
-      <c r="Q15" s="9">
+      <c r="Q15" s="12">
         <v>0</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="12">
         <v>95</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="12">
         <v>90</v>
       </c>
-      <c r="T15" s="8">
+      <c r="T15" s="10">
         <v>1600000000000000</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="10">
         <v>1600000000000000</v>
       </c>
     </row>
@@ -2103,56 +2134,56 @@
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L16" s="9">
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12">
         <f>L15+200</f>
         <v>1200</v>
       </c>
-      <c r="M16" s="9">
-        <f t="shared" ref="M16:M20" si="2">M15+200</f>
+      <c r="M16" s="12">
+        <f t="shared" ref="M16:M25" si="2">M15+200</f>
         <v>1200</v>
       </c>
-      <c r="N16" s="9">
-        <f t="shared" ref="N16:N20" si="3">N15+200</f>
+      <c r="N16" s="12">
+        <f t="shared" ref="N16:N25" si="3">N15+200</f>
         <v>1200</v>
       </c>
-      <c r="O16" s="9">
-        <f t="shared" ref="O16:O20" si="4">O15+200</f>
+      <c r="O16" s="12">
+        <f t="shared" ref="O16:O25" si="4">O15+200</f>
         <v>1200</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="12">
         <v>55</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="Q16" s="12">
         <v>20</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="12">
         <v>95</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="12">
         <v>90</v>
       </c>
-      <c r="T16" s="8">
+      <c r="T16" s="10">
         <v>3200000000000000</v>
       </c>
-      <c r="U16" s="8">
+      <c r="U16" s="10">
         <v>3200000000000000</v>
       </c>
     </row>
@@ -2168,57 +2199,57 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" ref="L16:L20" si="5">L16+200</f>
+      <c r="K17" s="11">
+        <v>1</v>
+      </c>
+      <c r="L17" s="12">
+        <f>L16+200</f>
         <v>1400</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="12">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="12">
         <f t="shared" si="3"/>
         <v>1400</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="12">
         <f t="shared" si="4"/>
         <v>1400</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="12">
         <v>60</v>
       </c>
-      <c r="Q17" s="9">
-        <f t="shared" ref="Q17:Q20" si="6">Q16+5</f>
+      <c r="Q17" s="12">
+        <f t="shared" ref="Q17:Q25" si="5">Q16+5</f>
         <v>25</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="12">
         <v>95</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="12">
         <v>90</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="10">
         <v>6400000000000000</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="10">
         <v>6400000000000000</v>
       </c>
     </row>
@@ -2234,57 +2265,57 @@
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="F18" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="F18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" si="5"/>
+      <c r="I18" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12">
+        <f>L17+200</f>
         <v>1600</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="12">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="12">
         <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="12">
         <f t="shared" si="4"/>
         <v>1600</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="12">
         <v>65</v>
       </c>
-      <c r="Q18" s="9">
-        <f t="shared" si="6"/>
+      <c r="Q18" s="12">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="12">
         <v>95</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="12">
         <v>90</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="10">
         <v>1e+16</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="10">
         <v>1e+16</v>
       </c>
     </row>
@@ -2300,57 +2331,57 @@
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="12" t="s">
+      <c r="F19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="5"/>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="12">
+        <f>L18+200</f>
         <v>1800</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="12">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="12">
         <f t="shared" si="3"/>
         <v>1800</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="12">
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="12">
         <v>70</v>
       </c>
-      <c r="Q19" s="9">
-        <f t="shared" si="6"/>
+      <c r="Q19" s="12">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="12">
         <v>95</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="12">
         <v>90</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="10">
         <v>2e+16</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="10">
         <v>2e+16</v>
       </c>
     </row>
@@ -2366,121 +2397,439 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="5"/>
+      <c r="F20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="11">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12">
+        <f>L19+200</f>
         <v>2000</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="12">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="12">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="12">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="12">
         <v>75</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="Q20" s="12">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R20" s="12">
+        <v>95</v>
+      </c>
+      <c r="S20" s="12">
+        <v>90</v>
+      </c>
+      <c r="T20" s="10">
+        <v>3e+16</v>
+      </c>
+      <c r="U20" s="10">
+        <v>3e+16</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:21">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>1501</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="11">
+        <v>10</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" ref="L21:L25" si="6">L20+500</f>
+        <v>2500</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" ref="M21:M25" si="7">M20+500</f>
+        <v>2500</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" ref="N21:N25" si="8">N20+500</f>
+        <v>2500</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" ref="O21:O25" si="9">O20+500</f>
+        <v>2500</v>
+      </c>
+      <c r="P21" s="12">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="12">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="R21" s="12">
+        <v>95</v>
+      </c>
+      <c r="S21" s="12">
+        <v>90</v>
+      </c>
+      <c r="T21" s="10">
+        <v>4e+16</v>
+      </c>
+      <c r="U21" s="10">
+        <v>4e+16</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:21">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1601</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>1700</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="11">
+        <v>10</v>
+      </c>
+      <c r="L22" s="12">
         <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="R20" s="9">
+        <v>3000</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="7"/>
+        <v>3000</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="O22" s="12">
+        <f t="shared" si="9"/>
+        <v>3000</v>
+      </c>
+      <c r="P22" s="12">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="12">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="R22" s="12">
         <v>95</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S22" s="12">
         <v>90</v>
       </c>
-      <c r="T20" s="8">
-        <v>3e+16</v>
-      </c>
-      <c r="U20" s="8">
-        <v>3e+16</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="6:8">
-      <c r="F21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" customHeight="1" spans="8:10">
-      <c r="H22" s="8"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" customHeight="1" spans="8:8">
-      <c r="H23" s="8"/>
-    </row>
-    <row r="25" customHeight="1" spans="8:8">
-      <c r="H25" s="8"/>
+      <c r="T22" s="10">
+        <v>5e+16</v>
+      </c>
+      <c r="U22" s="10">
+        <v>5e+16</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="3:21">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>1701</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>1800</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="11">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="11">
+        <v>10</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="6"/>
+        <v>3500</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="7"/>
+        <v>3500</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="8"/>
+        <v>3500</v>
+      </c>
+      <c r="O23" s="12">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="P23" s="12">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="12">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="R23" s="12">
+        <v>95</v>
+      </c>
+      <c r="S23" s="12">
+        <v>90</v>
+      </c>
+      <c r="T23" s="10">
+        <v>6e+16</v>
+      </c>
+      <c r="U23" s="10">
+        <v>6e+16</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="3:21">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>1801</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>1900</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="11">
+        <v>10</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="7"/>
+        <v>4000</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="O24" s="12">
+        <f t="shared" si="9"/>
+        <v>4000</v>
+      </c>
+      <c r="P24" s="12">
+        <v>75</v>
+      </c>
+      <c r="Q24" s="12">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="R24" s="12">
+        <v>95</v>
+      </c>
+      <c r="S24" s="12">
+        <v>90</v>
+      </c>
+      <c r="T24" s="10">
+        <v>7e+16</v>
+      </c>
+      <c r="U24" s="10">
+        <v>7e+16</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="3:21">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>1901</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="11">
+        <v>10</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="6"/>
+        <v>4500</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="7"/>
+        <v>4500</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="8"/>
+        <v>4500</v>
+      </c>
+      <c r="O25" s="12">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="P25" s="12">
+        <v>75</v>
+      </c>
+      <c r="Q25" s="12">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="R25" s="12">
+        <v>95</v>
+      </c>
+      <c r="S25" s="12">
+        <v>90</v>
+      </c>
+      <c r="T25" s="10">
+        <v>8e+16</v>
+      </c>
+      <c r="U25" s="10">
+        <v>8e+16</v>
+      </c>
     </row>
     <row r="26" customHeight="1" spans="8:8">
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" customHeight="1" spans="8:9">
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" customHeight="1" spans="7:9">
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" customHeight="1" spans="8:9">
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" customHeight="1" spans="8:9">
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" customHeight="1" spans="8:9">
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" customHeight="1" spans="8:9">
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" customHeight="1" spans="8:9">
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" customHeight="1" spans="8:9">
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" customHeight="1" spans="8:9">
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" customHeight="1" spans="8:9">
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" customHeight="1" spans="8:11">
+      <c r="H27" s="10"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" customHeight="1" spans="8:10">
+      <c r="H28" s="10"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" customHeight="1" spans="6:10">
+      <c r="F29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" customHeight="1" spans="6:10">
+      <c r="F30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" customHeight="1" spans="8:10">
+      <c r="H31" s="10"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" customHeight="1" spans="8:8">
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" customHeight="1" spans="8:8">
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" customHeight="1" spans="8:8">
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" customHeight="1" spans="8:8">
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" customHeight="1" spans="8:8">
+      <c r="H36" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:K3 E4:K4 E5:P5 C3:C5 D4:D5 L3:P4 Q3:S5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:F3 G3 H3 I3 J3 K3 E4:F4 G4 H4 I4 J4 K4 E5:F5 G5 H5 I5 J5 K5 L5:P5 C3:C5 D4:D5 L3:P4 Q3:S5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -188,7 +188,7 @@
     <t>512000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>800000000000000000000000000</t>
+    <t>8000000000000000000000000000</t>
   </si>
   <si>
     <t>512000000000000000000000000000</t>
@@ -197,7 +197,7 @@
     <t>999000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>16000000000000000000000000000</t>
+    <t>160000000000000000000000000000</t>
   </si>
   <si>
     <t>5120000000000000000000000000000</t>
@@ -206,7 +206,7 @@
     <t>999000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>320000000000000000000000000000</t>
+    <t>3200000000000000000000000000000</t>
   </si>
   <si>
     <t>51200000000000000000000000000000</t>
@@ -215,7 +215,7 @@
     <t>999000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>6400000000000000000000000000000</t>
+    <t>64000000000000000000000000000000</t>
   </si>
   <si>
     <t>512000000000000000000000000000000</t>
@@ -224,58 +224,58 @@
     <t>999000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>120000000000000000000000000000000</t>
+    <t>1200000000000000000000000000000000</t>
   </si>
   <si>
     <t>5120000000000000000000000000000000</t>
   </si>
   <si>
+    <t>999000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000</t>
+  </si>
+  <si>
     <t>999000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>90000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>9000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>900000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>999000000000000000000000000000000000000000000000000000000000000000000</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1264,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1274,13 +1274,13 @@
     <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="36.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="34.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="36.25" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="54.375" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.75" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="2" customWidth="1"/>
     <col min="13" max="14" width="6.375" style="2" customWidth="1"/>
     <col min="15" max="15" width="8" style="2" customWidth="1"/>
     <col min="16" max="16" width="5.875" style="2" customWidth="1"/>
@@ -2498,7 +2498,8 @@
         <v>2500</v>
       </c>
       <c r="P21" s="12">
-        <v>75</v>
+        <f t="shared" ref="P21:P25" si="10">P20+5</f>
+        <v>80</v>
       </c>
       <c r="Q21" s="12">
         <f t="shared" si="5"/>
@@ -2508,7 +2509,7 @@
         <v>95</v>
       </c>
       <c r="S21" s="12">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T21" s="10">
         <v>4e+16</v>
@@ -2564,7 +2565,8 @@
         <v>3000</v>
       </c>
       <c r="P22" s="12">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>85</v>
       </c>
       <c r="Q22" s="12">
         <f t="shared" si="5"/>
@@ -2574,7 +2576,7 @@
         <v>95</v>
       </c>
       <c r="S22" s="12">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T22" s="10">
         <v>5e+16</v>
@@ -2630,7 +2632,8 @@
         <v>3500</v>
       </c>
       <c r="P23" s="12">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>90</v>
       </c>
       <c r="Q23" s="12">
         <f t="shared" si="5"/>
@@ -2640,7 +2643,7 @@
         <v>95</v>
       </c>
       <c r="S23" s="12">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T23" s="10">
         <v>6e+16</v>
@@ -2696,7 +2699,8 @@
         <v>4000</v>
       </c>
       <c r="P24" s="12">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>95</v>
       </c>
       <c r="Q24" s="12">
         <f t="shared" si="5"/>
@@ -2706,7 +2710,7 @@
         <v>95</v>
       </c>
       <c r="S24" s="12">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T24" s="10">
         <v>7e+16</v>
@@ -2762,7 +2766,8 @@
         <v>4500</v>
       </c>
       <c r="P25" s="12">
-        <v>75</v>
+        <f t="shared" si="10"/>
+        <v>100</v>
       </c>
       <c r="Q25" s="12">
         <f t="shared" si="5"/>
@@ -2772,7 +2777,7 @@
         <v>95</v>
       </c>
       <c r="S25" s="12">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T25" s="10">
         <v>8e+16</v>
@@ -2829,7 +2834,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:F3 G3 H3 I3 J3 K3 E4:F4 G4 H4 I4 J4 K4 E5:F5 G5 H5 I5 J5 K5 L5:P5 C3:C5 D4:D5 L3:P4 Q3:S5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:K3 E4:K4 E5:P5 C3:C5 D4:D5 L3:P4 Q3:S5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/InfiniteConfig.xlsx
+++ b/Excel/InfiniteConfig.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -233,46 +233,31 @@
     <t>999000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>9000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>90000000000000000000000000000000000000000</t>
+    <t>90000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>900000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>9000000000000000000000000000000000000000000</t>
+    <t>9000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000000000000</t>
   </si>
   <si>
-    <t>90000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>900000000000000000000000000000000000000000000</t>
+    <t>900000000000000000000000000000000000000000000000</t>
   </si>
   <si>
     <t>999000000000000000000000000000000000000000000000000000000000000000</t>
@@ -1274,9 +1259,9 @@
     <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="7.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="39.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="9.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="54.375" style="3" customWidth="1"/>
     <col min="11" max="11" width="9.75" style="4" customWidth="1"/>
@@ -2470,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="I21" s="11">
-        <v>1</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="K21" s="11">
         <v>10</v>
@@ -2531,19 +2516,19 @@
         <v>1700</v>
       </c>
       <c r="F22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="11">
-        <v>1</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="K22" s="11">
         <v>10</v>
@@ -2598,19 +2583,19 @@
         <v>1800</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G23" s="11">
         <v>1</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I23" s="11">
         <v>1</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K23" s="11">
         <v>10</v>
@@ -2665,19 +2650,19 @@
         <v>1900</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I24" s="11">
         <v>1</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K24" s="11">
         <v>10</v>
@@ -2732,19 +2717,19 @@
         <v>2000</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G25" s="11">
         <v>1</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I25" s="11">
         <v>1</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K25" s="11">
         <v>10</v>
@@ -2786,7 +2771,8 @@
         <v>8e+16</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="8:8">
+    <row r="26" customHeight="1" spans="6:8">
+      <c r="F26" s="10"/>
       <c r="H26" s="10"/>
     </row>
     <row r="27" customHeight="1" spans="8:11">
